--- a/Component_Placement_Sheet.xlsx
+++ b/Component_Placement_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/Detector_Versions/CosmicWatch_v3X/KiCad/CosmicWatch_v3X_v23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v3X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63271498-189F-DC4F-8DFB-5AC530F9D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0061E2BA-F152-1A47-A91D-7E20479F5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="24540" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="206">
   <si>
     <t>1k</t>
   </si>
@@ -387,9 +387,6 @@
     <t>🔗</t>
   </si>
   <si>
-    <t>Alt</t>
-  </si>
-  <si>
     <t>Ferrite Bead</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
   </si>
   <si>
     <t>Rubber feet for case (optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coincidence cable </t>
   </si>
   <si>
     <t>CAT6 cable</t>
@@ -625,9 +619,6 @@
     <t>#2 3/8"</t>
   </si>
   <si>
-    <t>1x</t>
-  </si>
-  <si>
     <t>10x</t>
   </si>
   <si>
@@ -635,13 +626,40 @@
   </si>
   <si>
     <t>Very important, Note direction. Find pin 1</t>
+  </si>
+  <si>
+    <t>Request for a 2506-2.9 split body case</t>
+  </si>
+  <si>
+    <t>Coincidence cable  (for two detectors)</t>
+  </si>
+  <si>
+    <t>MicroSD Card</t>
+  </si>
+  <si>
+    <t>microSD card</t>
+  </si>
+  <si>
+    <t>ExFAT formatted, something &gt;4GB is good.</t>
+  </si>
+  <si>
+    <t>Total ($):</t>
+  </si>
+  <si>
+    <t>Price ($)</t>
+  </si>
+  <si>
+    <t>1x (unit)</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -717,6 +735,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -750,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -789,19 +814,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -881,7 +893,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -900,20 +912,11 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -933,24 +936,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -966,9 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -977,15 +959,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -996,10 +969,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3052,10 +3070,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3067,39 +3085,44 @@
     <col min="5" max="5" width="48" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.33203125" style="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>37</v>
@@ -3116,1599 +3139,1739 @@
       <c r="G3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="31">
+        <v>0.19</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="31">
+        <v>0.11</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="D13" s="8"/>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="31">
+        <v>1.04</v>
+      </c>
+      <c r="J14" s="31">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="31">
+        <v>4</v>
+      </c>
+      <c r="J15" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="J17" s="31">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="31">
+        <v>1.92</v>
+      </c>
+      <c r="J19" s="31">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="31">
+        <v>1.67</v>
+      </c>
+      <c r="J20" s="31">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J21" s="31">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="31">
+        <v>0.13</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="J24" s="31">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="31">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2">
+      <c r="D29" s="8"/>
+      <c r="E29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="31">
+        <v>0.13</v>
+      </c>
+      <c r="J29" s="31">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="31">
         <v>0.1</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="J30" s="31">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="31">
+        <v>0.13</v>
+      </c>
+      <c r="J31" s="31">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="31">
+        <v>2.48</v>
+      </c>
+      <c r="J32" s="31">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="10">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="J34" s="31">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
         <v>29</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+      <c r="B35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="J35" s="31">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="11">
-        <v>100</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>5</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>7</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="J14" s="2">
-        <v>6.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="2">
+      <c r="C36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="2">
-        <v>1.92</v>
-      </c>
-      <c r="J19" s="2">
-        <v>11.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="2">
-        <v>1.67</v>
-      </c>
-      <c r="J20" s="2">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
-        <v>19</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="J24" s="2">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
-        <v>25</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
-        <v>26</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
-        <v>27</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="2">
-        <v>2.48</v>
-      </c>
-      <c r="J32" s="2">
-        <v>21.07</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
-        <v>28</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13">
-        <v>29</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="J35" s="2">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13">
-        <v>30</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="39">
+      <c r="H36" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="35">
         <f>6.89/10</f>
         <v>0.68899999999999995</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="31">
         <v>6.89</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13">
+      <c r="A37" s="10">
         <v>31</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>186</v>
+      <c r="F37" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="H37" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="31">
         <f>7.39/5</f>
         <v>1.478</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="31">
         <f>7.39*2</f>
         <v>14.78</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13">
+      <c r="A38" s="10">
         <v>32</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>185</v>
+      <c r="C38" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="2">
+      <c r="H38" s="29"/>
+      <c r="I38" s="31">
         <v>6.99</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="31">
         <f>3.663333333*10</f>
         <v>36.633333329999999</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13">
+      <c r="A39" s="10">
         <v>33</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>82</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="39">
+      <c r="H39" s="29"/>
+      <c r="I39" s="35">
         <f>6.99/100</f>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="31">
         <f>6.99/10</f>
         <v>0.69900000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13">
+      <c r="A40" s="10">
         <v>34</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="13" t="s">
         <v>85</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="2">
+      <c r="H40" s="29"/>
+      <c r="I40" s="31">
         <f>6.99/100</f>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="31">
         <f>6.99/10</f>
         <v>0.69900000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13">
+      <c r="A41" s="10">
         <v>35</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="H41" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" s="31">
         <v>5</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="31">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13">
+      <c r="A42" s="10">
         <v>36</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="H42" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="31">
         <f>7.29/6</f>
         <v>1.2150000000000001</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="31">
         <f>I42*10</f>
         <v>12.15</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="23">
+      <c r="A44" s="14">
         <v>37</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="24" t="s">
+      <c r="D44" s="11"/>
+      <c r="E44" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="16"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="2">
+      <c r="H44" s="29"/>
+      <c r="I44" s="31">
         <v>0.11</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="31">
         <v>0.61</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="23">
+      <c r="A45" s="14">
         <v>38</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="24" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="16"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="2">
+      <c r="H45" s="29"/>
+      <c r="I45" s="31">
         <v>0.08</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="31">
         <v>0.11</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="23">
+      <c r="A46" s="14">
         <v>39</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="J46" s="31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="14">
+        <v>40</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="31">
+        <v>0.11</v>
+      </c>
+      <c r="J47" s="31">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="14">
+        <v>41</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J48" s="31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="14">
+        <v>42</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="31">
+        <v>0.53</v>
+      </c>
+      <c r="J49" s="31">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="14">
+        <v>43</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="31">
+        <v>28.41</v>
+      </c>
+      <c r="J50" s="31">
+        <v>251.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="14">
         <v>44</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="7" t="s">
+      <c r="B51" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="J51" s="31">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="14">
         <v>45</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="23">
-        <v>40</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23">
-        <v>41</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23">
-        <v>42</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="J49" s="2">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="23">
-        <v>43</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="2">
-        <v>28.41</v>
-      </c>
-      <c r="J50" s="2">
-        <v>251.47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="23">
-        <v>44</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="24" t="s">
+      <c r="B52" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J51" s="2">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="23">
-        <v>45</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="24" t="s">
+      <c r="D52" s="11"/>
+      <c r="E52" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="2">
+      <c r="H52" s="29"/>
+      <c r="I52" s="31">
         <f>6.79/100</f>
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="31">
         <f>6.79/10</f>
         <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23">
+      <c r="A54" s="14">
         <v>46</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="31">
+        <v>19</v>
+      </c>
+      <c r="J54" s="31">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="10">
+        <v>47</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="J55" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="14">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="30"/>
+      <c r="I56" s="31">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J56" s="31">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="10">
+        <v>49</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="35">
+        <f>12.69/10</f>
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="J57" s="31">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="14">
+        <v>50</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="I58" s="35">
+        <f>2.65/100</f>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="J58" s="31">
+        <f>I58*10</f>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="10">
+        <v>51</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="29"/>
+      <c r="I59" s="31">
+        <v>1.69</v>
+      </c>
+      <c r="J59" s="31">
+        <v>16.920000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="14">
+        <v>52</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="35">
+        <f>8.89/6</f>
+        <v>1.4816666666666667</v>
+      </c>
+      <c r="J60" s="31">
+        <f>8.89</f>
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="10">
+        <v>53</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="2">
-        <v>19</v>
-      </c>
-      <c r="J54" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="13">
-        <v>47</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="23">
-        <v>48</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
+      <c r="F61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="30"/>
+      <c r="I61" s="31">
+        <v>9</v>
+      </c>
+      <c r="J61" s="31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="14">
+        <v>54</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="13">
-        <v>49</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23">
-        <v>50</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="13">
-        <v>51</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="23">
-        <v>52</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="13">
-        <v>53</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="23">
-        <v>54</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="35">
+        <f>3.99/100</f>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="J62" s="31">
+        <f>100*I62</f>
+        <v>3.9900000000000007</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="13">
+      <c r="A63" s="10">
         <v>55</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="7" t="s">
-        <v>134</v>
+      <c r="B63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H63" s="10"/>
+      <c r="H63" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="31">
+        <f>6.09/20</f>
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="J63" s="31">
+        <f>I63*10</f>
+        <v>3.0449999999999999</v>
+      </c>
     </row>
     <row r="64" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23">
+      <c r="A64" s="14">
         <v>56</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="7" t="s">
-        <v>137</v>
+      <c r="B64" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H64" s="10"/>
+      <c r="H64" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" s="31">
+        <f>11.39/100</f>
+        <v>0.1139</v>
+      </c>
+      <c r="J64" s="31">
+        <f>I64*10</f>
+        <v>1.139</v>
+      </c>
     </row>
     <row r="65" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13">
+      <c r="A65" s="10">
         <v>57</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>145</v>
       </c>
+      <c r="C65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="F65" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="31">
+        <v>1</v>
+      </c>
+      <c r="J65" s="31">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23">
+      <c r="A66" s="14">
         <v>58</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="7" t="s">
-        <v>138</v>
+      <c r="B66" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I67" s="1">
-        <f>SUM(I5:I66)</f>
-        <v>79.739699999999999</v>
-      </c>
-      <c r="J67" s="1">
-        <f>SUM(J5:J66)</f>
-        <v>668.62033332999999</v>
+      <c r="H66" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="31">
+        <v>7.19</v>
+      </c>
+      <c r="J66" s="31">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="14">
+        <v>59</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" s="27"/>
+      <c r="I67" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="J67" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G68" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25">
+        <f>SUM(I5:I67)</f>
+        <v>114.40516666666667</v>
+      </c>
+      <c r="J68" s="25">
+        <f>SUM(J5:J67)</f>
+        <v>852.79933333000008</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A25:H25"/>
@@ -4757,7 +4920,7 @@
     <hyperlink ref="G58" r:id="rId40" xr:uid="{A7A3D3E7-DB98-9846-9837-4F92A5AEC05B}"/>
     <hyperlink ref="G63" r:id="rId41" xr:uid="{A4C11252-F340-8C41-94EA-7F54CBE97C72}"/>
     <hyperlink ref="G64" r:id="rId42" xr:uid="{9754C7AB-196A-6549-BEAD-D36381163F48}"/>
-    <hyperlink ref="G66" r:id="rId43" xr:uid="{4398D883-8521-194B-8F9B-83CB9FAC708C}"/>
+    <hyperlink ref="G67" r:id="rId43" xr:uid="{4398D883-8521-194B-8F9B-83CB9FAC708C}"/>
     <hyperlink ref="G60" r:id="rId44" xr:uid="{8121FC13-B5AD-DE45-B596-7A654553B8E1}"/>
     <hyperlink ref="G56" r:id="rId45" xr:uid="{5239B69E-6ECC-9A44-AB79-B03D6976AB4B}"/>
     <hyperlink ref="G65" r:id="rId46" xr:uid="{2649F7DB-4C28-0842-86F0-046A8CBD0D7F}"/>
@@ -4779,12 +4942,18 @@
     <hyperlink ref="H42" r:id="rId62" xr:uid="{85C3CCAE-AE34-6F4D-BB81-D0542993FD86}"/>
     <hyperlink ref="G50" r:id="rId63" xr:uid="{6D279AE6-1632-D949-AF1B-D9B01BEE22D5}"/>
     <hyperlink ref="G54" r:id="rId64" xr:uid="{77ED00C2-AEB9-AF46-BAD4-47C057542ED7}"/>
+    <hyperlink ref="H60" r:id="rId65" xr:uid="{7E92FC71-1828-1347-8A0C-006F6C8E33D9}"/>
+    <hyperlink ref="H62" r:id="rId66" xr:uid="{765DA2F2-534C-F04A-83EE-6DE4C93A616F}"/>
+    <hyperlink ref="H63" r:id="rId67" xr:uid="{2FF58D32-1303-3741-8980-398B83460ED3}"/>
+    <hyperlink ref="H64" r:id="rId68" xr:uid="{26EDE05F-D1A0-2C4A-8936-BE0E610D5348}"/>
+    <hyperlink ref="G66" r:id="rId69" xr:uid="{1F44837E-6CDE-1F4D-ADC9-348EB68867C4}"/>
+    <hyperlink ref="H66" r:id="rId70" xr:uid="{A9E4EEEA-BAD5-8044-925B-73291B6B46E9}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup scale="44" fitToHeight="4" orientation="portrait" copies="2"/>
+  <pageSetup scale="40" fitToHeight="4" orientation="portrait" copies="2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId65"/>
+  <drawing r:id="rId71"/>
 </worksheet>
 </file>
--- a/Component_Placement_Sheet.xlsx
+++ b/Component_Placement_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v3X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0061E2BA-F152-1A47-A91D-7E20479F5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502BE373-B7A4-804F-9FD5-5FF756327F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="24540" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="206">
   <si>
     <t>1k</t>
   </si>
@@ -942,6 +942,57 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -967,57 +1018,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3072,8 +3072,8 @@
   </sheetPr>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3092,30 +3092,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -3139,29 +3139,29 @@
       <c r="G3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="34" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="23" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3183,11 +3183,11 @@
       <c r="G5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="31">
+      <c r="H5" s="18"/>
+      <c r="I5" s="22">
         <v>0.1</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="22">
         <v>0.12</v>
       </c>
     </row>
@@ -3209,11 +3209,11 @@
       <c r="G6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="31">
+      <c r="H6" s="19"/>
+      <c r="I6" s="22">
         <v>0.1</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="22">
         <v>0.25</v>
       </c>
     </row>
@@ -3235,11 +3235,11 @@
       <c r="G7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="31">
+      <c r="H7" s="19"/>
+      <c r="I7" s="22">
         <v>0.1</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="22">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -3261,11 +3261,11 @@
       <c r="G8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31">
+      <c r="H8" s="19"/>
+      <c r="I8" s="22">
         <v>0.1</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="22">
         <v>0.25</v>
       </c>
     </row>
@@ -3289,11 +3289,11 @@
       <c r="G9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="31">
+      <c r="H9" s="19"/>
+      <c r="I9" s="22">
         <v>0.1</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="22">
         <v>0.27</v>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
       <c r="G10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="31">
+      <c r="H10" s="20"/>
+      <c r="I10" s="22">
         <v>0.19</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="22">
         <v>1.08</v>
       </c>
     </row>
@@ -3341,11 +3341,11 @@
       <c r="G11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="31">
+      <c r="H11" s="20"/>
+      <c r="I11" s="22">
         <v>0.11</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="22">
         <v>0.63</v>
       </c>
     </row>
@@ -3367,11 +3367,11 @@
       <c r="G12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="31">
+      <c r="H12" s="20"/>
+      <c r="I12" s="22">
         <v>0.08</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="22">
         <v>0.08</v>
       </c>
     </row>
@@ -3393,11 +3393,11 @@
       <c r="G13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="31">
+      <c r="H13" s="20"/>
+      <c r="I13" s="22">
         <v>0.1</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="22">
         <v>0.22</v>
       </c>
     </row>
@@ -3421,11 +3421,11 @@
       <c r="G14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="31">
+      <c r="H14" s="20"/>
+      <c r="I14" s="22">
         <v>1.04</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="22">
         <v>6.31</v>
       </c>
     </row>
@@ -3449,27 +3449,27 @@
       <c r="G15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="31">
+      <c r="H15" s="20"/>
+      <c r="I15" s="22">
         <v>4</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="22">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
@@ -3489,11 +3489,11 @@
       <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="31">
+      <c r="H17" s="20"/>
+      <c r="I17" s="22">
         <v>0.15</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="22">
         <v>1.22</v>
       </c>
     </row>
@@ -3515,11 +3515,11 @@
       <c r="G18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="31">
+      <c r="H18" s="20"/>
+      <c r="I18" s="22">
         <v>0.1</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="22">
         <v>0.54</v>
       </c>
     </row>
@@ -3543,11 +3543,11 @@
       <c r="G19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="31">
+      <c r="H19" s="20"/>
+      <c r="I19" s="22">
         <v>1.92</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="22">
         <v>11.92</v>
       </c>
     </row>
@@ -3571,11 +3571,11 @@
       <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="31">
+      <c r="H20" s="20"/>
+      <c r="I20" s="22">
         <v>1.67</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="22">
         <v>12.26</v>
       </c>
     </row>
@@ -3599,11 +3599,11 @@
       <c r="G21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="31">
+      <c r="H21" s="20"/>
+      <c r="I21" s="22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="22">
         <v>1.08</v>
       </c>
     </row>
@@ -3627,11 +3627,11 @@
       <c r="G22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="31">
+      <c r="H22" s="20"/>
+      <c r="I22" s="22">
         <v>0.1</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="22">
         <v>0.61</v>
       </c>
     </row>
@@ -3655,11 +3655,11 @@
       <c r="G23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="31">
+      <c r="H23" s="20"/>
+      <c r="I23" s="22">
         <v>0.13</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="22">
         <v>0.8</v>
       </c>
     </row>
@@ -3683,27 +3683,27 @@
       <c r="G24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="31">
+      <c r="H24" s="20"/>
+      <c r="I24" s="22">
         <v>0.89</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="22">
         <v>7.55</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
@@ -3723,11 +3723,11 @@
       <c r="G26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="31">
+      <c r="H26" s="20"/>
+      <c r="I26" s="22">
         <v>0.1</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="22">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -3749,11 +3749,11 @@
       <c r="G27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="31">
+      <c r="H27" s="20"/>
+      <c r="I27" s="22">
         <v>0.1</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="22">
         <v>0.12</v>
       </c>
     </row>
@@ -3775,11 +3775,11 @@
       <c r="G28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="31">
+      <c r="H28" s="20"/>
+      <c r="I28" s="22">
         <v>0.1</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="22">
         <v>0.12</v>
       </c>
     </row>
@@ -3801,11 +3801,11 @@
       <c r="G29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="31">
+      <c r="H29" s="20"/>
+      <c r="I29" s="22">
         <v>0.13</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="22">
         <v>0.16</v>
       </c>
     </row>
@@ -3827,11 +3827,11 @@
       <c r="G30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="31">
+      <c r="H30" s="20"/>
+      <c r="I30" s="22">
         <v>0.1</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="22">
         <v>0.49</v>
       </c>
     </row>
@@ -3855,11 +3855,11 @@
       <c r="G31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="31">
+      <c r="H31" s="20"/>
+      <c r="I31" s="22">
         <v>0.13</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="22">
         <v>0.73</v>
       </c>
     </row>
@@ -3883,29 +3883,29 @@
       <c r="G32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="31">
+      <c r="H32" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="22">
         <v>2.48</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="22">
         <v>21.07</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
@@ -3927,13 +3927,13 @@
       <c r="G34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="31">
+      <c r="H34" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="22">
         <v>0.33</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="22">
         <v>2.82</v>
       </c>
     </row>
@@ -3954,16 +3954,14 @@
       <c r="F35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="31">
+      <c r="G35" s="4"/>
+      <c r="H35" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="22">
         <v>0.45</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="22">
         <v>3.83</v>
       </c>
     </row>
@@ -3987,14 +3985,14 @@
       <c r="G36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="35">
+      <c r="H36" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="24">
         <f>6.89/10</f>
         <v>0.68899999999999995</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="22">
         <v>6.89</v>
       </c>
     </row>
@@ -4018,14 +4016,14 @@
       <c r="G37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="31">
+      <c r="H37" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="22">
         <f>7.39/5</f>
         <v>1.478</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J37" s="22">
         <f>7.39*2</f>
         <v>14.78</v>
       </c>
@@ -4050,11 +4048,11 @@
       <c r="G38" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="31">
+      <c r="H38" s="20"/>
+      <c r="I38" s="22">
         <v>6.99</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="22">
         <f>3.663333333*10</f>
         <v>36.633333329999999</v>
       </c>
@@ -4079,12 +4077,12 @@
       <c r="G39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="35">
+      <c r="H39" s="20"/>
+      <c r="I39" s="24">
         <f>6.99/100</f>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="22">
         <f>6.99/10</f>
         <v>0.69900000000000007</v>
       </c>
@@ -4109,12 +4107,12 @@
       <c r="G40" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="31">
+      <c r="H40" s="20"/>
+      <c r="I40" s="22">
         <f>6.99/100</f>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="22">
         <f>6.99/10</f>
         <v>0.69900000000000007</v>
       </c>
@@ -4139,13 +4137,13 @@
       <c r="G41" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="31">
+      <c r="H41" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" s="22">
         <v>5</v>
       </c>
-      <c r="J41" s="31">
+      <c r="J41" s="22">
         <v>28</v>
       </c>
     </row>
@@ -4169,31 +4167,31 @@
       <c r="G42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="31">
+      <c r="H42" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="22">
         <f>7.29/6</f>
         <v>1.2150000000000001</v>
       </c>
-      <c r="J42" s="31">
+      <c r="J42" s="22">
         <f>I42*10</f>
         <v>12.15</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
@@ -4213,11 +4211,11 @@
       <c r="G44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="31">
+      <c r="H44" s="20"/>
+      <c r="I44" s="22">
         <v>0.11</v>
       </c>
-      <c r="J44" s="31">
+      <c r="J44" s="22">
         <v>0.61</v>
       </c>
     </row>
@@ -4239,11 +4237,11 @@
       <c r="G45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="31">
+      <c r="H45" s="20"/>
+      <c r="I45" s="22">
         <v>0.08</v>
       </c>
-      <c r="J45" s="31">
+      <c r="J45" s="22">
         <v>0.11</v>
       </c>
     </row>
@@ -4265,11 +4263,11 @@
       <c r="G46" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="31">
+      <c r="H46" s="20"/>
+      <c r="I46" s="22">
         <v>0.08</v>
       </c>
-      <c r="J46" s="31">
+      <c r="J46" s="22">
         <v>0.08</v>
       </c>
     </row>
@@ -4291,11 +4289,11 @@
       <c r="G47" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="31">
+      <c r="H47" s="20"/>
+      <c r="I47" s="22">
         <v>0.11</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="22">
         <v>0.35</v>
       </c>
     </row>
@@ -4317,11 +4315,11 @@
       <c r="G48" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="31">
+      <c r="H48" s="20"/>
+      <c r="I48" s="22">
         <v>0.1</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="22">
         <v>0.25</v>
       </c>
     </row>
@@ -4345,11 +4343,11 @@
       <c r="G49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="31">
+      <c r="H49" s="20"/>
+      <c r="I49" s="22">
         <v>0.53</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="22">
         <v>4.51</v>
       </c>
     </row>
@@ -4373,11 +4371,11 @@
       <c r="G50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="31">
+      <c r="H50" s="20"/>
+      <c r="I50" s="22">
         <v>28.41</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="22">
         <v>251.47</v>
       </c>
     </row>
@@ -4401,11 +4399,11 @@
       <c r="G51" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="31">
+      <c r="H51" s="20"/>
+      <c r="I51" s="22">
         <v>0.7</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="22">
         <v>5.9</v>
       </c>
     </row>
@@ -4429,29 +4427,29 @@
       <c r="G52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="31">
+      <c r="H52" s="20"/>
+      <c r="I52" s="22">
         <f>6.79/100</f>
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="22">
         <f>6.79/10</f>
         <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
@@ -4471,11 +4469,11 @@
       <c r="G54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="31">
+      <c r="H54" s="20"/>
+      <c r="I54" s="22">
         <v>19</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J54" s="22">
         <v>190</v>
       </c>
     </row>
@@ -4499,11 +4497,11 @@
       <c r="G55" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="31">
+      <c r="H55" s="20"/>
+      <c r="I55" s="22">
         <v>0.1</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="22">
         <v>0.1</v>
       </c>
     </row>
@@ -4525,11 +4523,11 @@
       <c r="G56" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="30"/>
-      <c r="I56" s="31">
+      <c r="H56" s="21"/>
+      <c r="I56" s="22">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J56" s="22">
         <v>9.9499999999999993</v>
       </c>
     </row>
@@ -4553,12 +4551,12 @@
       <c r="G57" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="35">
+      <c r="H57" s="20"/>
+      <c r="I57" s="24">
         <f>12.69/10</f>
         <v>1.2689999999999999</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J57" s="22">
         <v>12.69</v>
       </c>
     </row>
@@ -4582,12 +4580,12 @@
       <c r="G58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="35">
+      <c r="H58" s="20"/>
+      <c r="I58" s="24">
         <f>2.65/100</f>
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J58" s="22">
         <f>I58*10</f>
         <v>0.26500000000000001</v>
       </c>
@@ -4612,11 +4610,11 @@
       <c r="G59" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="31">
+      <c r="H59" s="20"/>
+      <c r="I59" s="22">
         <v>1.69</v>
       </c>
-      <c r="J59" s="31">
+      <c r="J59" s="22">
         <v>16.920000000000002</v>
       </c>
     </row>
@@ -4640,14 +4638,14 @@
       <c r="G60" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H60" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60" s="35">
+      <c r="H60" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="24">
         <f>8.89/6</f>
         <v>1.4816666666666667</v>
       </c>
-      <c r="J60" s="31">
+      <c r="J60" s="22">
         <f>8.89</f>
         <v>8.89</v>
       </c>
@@ -4672,11 +4670,11 @@
       <c r="G61" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="31">
+      <c r="H61" s="21"/>
+      <c r="I61" s="22">
         <v>9</v>
       </c>
-      <c r="J61" s="31">
+      <c r="J61" s="22">
         <v>90</v>
       </c>
     </row>
@@ -4698,14 +4696,14 @@
       <c r="G62" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H62" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="35">
+      <c r="H62" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="24">
         <f>3.99/100</f>
         <v>3.9900000000000005E-2</v>
       </c>
-      <c r="J62" s="31">
+      <c r="J62" s="22">
         <f>100*I62</f>
         <v>3.9900000000000007</v>
       </c>
@@ -4728,14 +4726,14 @@
       <c r="G63" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H63" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="31">
+      <c r="H63" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="22">
         <f>6.09/20</f>
         <v>0.30449999999999999</v>
       </c>
-      <c r="J63" s="31">
+      <c r="J63" s="22">
         <f>I63*10</f>
         <v>3.0449999999999999</v>
       </c>
@@ -4758,14 +4756,14 @@
       <c r="G64" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H64" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I64" s="31">
+      <c r="H64" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" s="22">
         <f>11.39/100</f>
         <v>0.1139</v>
       </c>
-      <c r="J64" s="31">
+      <c r="J64" s="22">
         <f>I64*10</f>
         <v>1.139</v>
       </c>
@@ -4790,11 +4788,11 @@
       <c r="G65" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H65" s="30"/>
-      <c r="I65" s="31">
+      <c r="H65" s="21"/>
+      <c r="I65" s="22">
         <v>1</v>
       </c>
-      <c r="J65" s="31">
+      <c r="J65" s="22">
         <v>5</v>
       </c>
     </row>
@@ -4816,13 +4814,13 @@
       <c r="G66" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H66" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I66" s="31">
+      <c r="H66" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="22">
         <v>7.19</v>
       </c>
-      <c r="J66" s="31">
+      <c r="J66" s="22">
         <v>7.19</v>
       </c>
     </row>
@@ -4844,24 +4842,24 @@
       <c r="G67" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H67" s="27"/>
-      <c r="I67" s="31">
+      <c r="H67" s="18"/>
+      <c r="I67" s="22">
         <v>2.5</v>
       </c>
-      <c r="J67" s="31">
+      <c r="J67" s="22">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G68" s="25" t="s">
+      <c r="G68" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25">
+      <c r="H68" s="16"/>
+      <c r="I68" s="16">
         <f>SUM(I5:I67)</f>
         <v>114.40516666666667</v>
       </c>
-      <c r="J68" s="25">
+      <c r="J68" s="16">
         <f>SUM(J5:J67)</f>
         <v>852.79933333000008</v>
       </c>
@@ -4904,56 +4902,55 @@
     <hyperlink ref="G31" r:id="rId24" xr:uid="{92EA5DFD-5C62-C249-A4BA-C8D51F259335}"/>
     <hyperlink ref="G32" r:id="rId25" xr:uid="{DAA65368-96A4-F649-80C6-47C27D6E77EB}"/>
     <hyperlink ref="G34" r:id="rId26" xr:uid="{BCFBE50A-4F43-E041-A2B0-3A39ACB29628}"/>
-    <hyperlink ref="G35" r:id="rId27" xr:uid="{F3140CEC-2E75-F04D-8FD5-ED1DA7AC1A9F}"/>
-    <hyperlink ref="G36" r:id="rId28" xr:uid="{28B79E98-1696-BE46-87D2-E047D9390A4B}"/>
-    <hyperlink ref="G38" r:id="rId29" xr:uid="{060B0E4E-853A-4744-8793-0FB142CBAFA5}"/>
-    <hyperlink ref="G39" r:id="rId30" xr:uid="{704EA759-3F24-1E43-9225-F3EF4AF1D8AE}"/>
-    <hyperlink ref="G40" r:id="rId31" xr:uid="{51DEB24F-F2D8-034B-B4CE-B862AFD8AEF4}"/>
-    <hyperlink ref="G42" r:id="rId32" xr:uid="{2699EBE7-D782-624D-89C6-8E001041169F}"/>
-    <hyperlink ref="G44" r:id="rId33" xr:uid="{627C4F45-41F7-F540-B4E2-2728848CDE60}"/>
-    <hyperlink ref="G51" r:id="rId34" xr:uid="{4D237FA4-6FE9-5A4C-8713-4FCD965F5231}"/>
-    <hyperlink ref="G52" r:id="rId35" xr:uid="{4E031D5E-4B15-E646-AA8E-47A65B6EFF79}"/>
-    <hyperlink ref="G62" r:id="rId36" xr:uid="{FDE7FB9D-D7E4-7544-96B1-C85422C1CAA7}"/>
-    <hyperlink ref="G61" r:id="rId37" xr:uid="{6AE9298E-B5B2-DD44-8E1C-0E89BF893AE6}"/>
-    <hyperlink ref="G59" r:id="rId38" xr:uid="{7F05D5E5-E6BA-CD40-BF00-3E6A222ACF58}"/>
-    <hyperlink ref="G55" r:id="rId39" xr:uid="{81004994-FC78-8547-9153-583C44AE1D76}"/>
-    <hyperlink ref="G58" r:id="rId40" xr:uid="{A7A3D3E7-DB98-9846-9837-4F92A5AEC05B}"/>
-    <hyperlink ref="G63" r:id="rId41" xr:uid="{A4C11252-F340-8C41-94EA-7F54CBE97C72}"/>
-    <hyperlink ref="G64" r:id="rId42" xr:uid="{9754C7AB-196A-6549-BEAD-D36381163F48}"/>
-    <hyperlink ref="G67" r:id="rId43" xr:uid="{4398D883-8521-194B-8F9B-83CB9FAC708C}"/>
-    <hyperlink ref="G60" r:id="rId44" xr:uid="{8121FC13-B5AD-DE45-B596-7A654553B8E1}"/>
-    <hyperlink ref="G56" r:id="rId45" xr:uid="{5239B69E-6ECC-9A44-AB79-B03D6976AB4B}"/>
-    <hyperlink ref="G65" r:id="rId46" xr:uid="{2649F7DB-4C28-0842-86F0-046A8CBD0D7F}"/>
-    <hyperlink ref="G57" r:id="rId47" xr:uid="{8E7EBB42-4FF3-2040-B177-E71E2A9B513B}"/>
-    <hyperlink ref="G9" r:id="rId48" xr:uid="{4D3355E8-5A36-174A-A71D-DB31B3BDB127}"/>
-    <hyperlink ref="G37" r:id="rId49" xr:uid="{565D2868-B2F4-4147-8B2C-9DA2839B402A}"/>
-    <hyperlink ref="G6" r:id="rId50" xr:uid="{41337B6D-A726-404F-8E3A-A7297AAEF553}"/>
-    <hyperlink ref="G45" r:id="rId51" xr:uid="{34D85EC0-0AEE-374A-B6A1-76DF8A07B165}"/>
-    <hyperlink ref="G46" r:id="rId52" xr:uid="{EDB9A295-1581-C24A-88A3-E0CC212C0DDD}"/>
-    <hyperlink ref="G47" r:id="rId53" xr:uid="{6DE2C368-613C-9D4D-9F84-6D0DBC951923}"/>
-    <hyperlink ref="G48" r:id="rId54" xr:uid="{4DC302ED-59A9-2449-A361-F29906F9C3AE}"/>
-    <hyperlink ref="H32" r:id="rId55" xr:uid="{D70B5C5F-26F0-0B41-8C17-1CC14ADA3FE6}"/>
-    <hyperlink ref="H34" r:id="rId56" xr:uid="{0641F1EB-124F-B04D-A94A-758F384DED86}"/>
-    <hyperlink ref="H35" r:id="rId57" xr:uid="{DB0D0FF9-650C-9047-8B87-64100B2B793F}"/>
-    <hyperlink ref="H36" r:id="rId58" xr:uid="{C2D15776-74B0-F248-A49B-2B60EC4E9F50}"/>
-    <hyperlink ref="H37" r:id="rId59" xr:uid="{7FCBF6EC-A974-3C4D-8ECC-BADD5D52FD8F}"/>
-    <hyperlink ref="H41" r:id="rId60" xr:uid="{FF2327CA-6C12-1B4D-9F3D-A6892FDF93AA}"/>
-    <hyperlink ref="G41" r:id="rId61" xr:uid="{A3991D56-3C5A-D24F-9BF4-72B691163E2E}"/>
-    <hyperlink ref="H42" r:id="rId62" xr:uid="{85C3CCAE-AE34-6F4D-BB81-D0542993FD86}"/>
-    <hyperlink ref="G50" r:id="rId63" xr:uid="{6D279AE6-1632-D949-AF1B-D9B01BEE22D5}"/>
-    <hyperlink ref="G54" r:id="rId64" xr:uid="{77ED00C2-AEB9-AF46-BAD4-47C057542ED7}"/>
-    <hyperlink ref="H60" r:id="rId65" xr:uid="{7E92FC71-1828-1347-8A0C-006F6C8E33D9}"/>
-    <hyperlink ref="H62" r:id="rId66" xr:uid="{765DA2F2-534C-F04A-83EE-6DE4C93A616F}"/>
-    <hyperlink ref="H63" r:id="rId67" xr:uid="{2FF58D32-1303-3741-8980-398B83460ED3}"/>
-    <hyperlink ref="H64" r:id="rId68" xr:uid="{26EDE05F-D1A0-2C4A-8936-BE0E610D5348}"/>
-    <hyperlink ref="G66" r:id="rId69" xr:uid="{1F44837E-6CDE-1F4D-ADC9-348EB68867C4}"/>
-    <hyperlink ref="H66" r:id="rId70" xr:uid="{A9E4EEEA-BAD5-8044-925B-73291B6B46E9}"/>
+    <hyperlink ref="G36" r:id="rId27" xr:uid="{28B79E98-1696-BE46-87D2-E047D9390A4B}"/>
+    <hyperlink ref="G38" r:id="rId28" xr:uid="{060B0E4E-853A-4744-8793-0FB142CBAFA5}"/>
+    <hyperlink ref="G39" r:id="rId29" xr:uid="{704EA759-3F24-1E43-9225-F3EF4AF1D8AE}"/>
+    <hyperlink ref="G40" r:id="rId30" xr:uid="{51DEB24F-F2D8-034B-B4CE-B862AFD8AEF4}"/>
+    <hyperlink ref="G42" r:id="rId31" xr:uid="{2699EBE7-D782-624D-89C6-8E001041169F}"/>
+    <hyperlink ref="G44" r:id="rId32" xr:uid="{627C4F45-41F7-F540-B4E2-2728848CDE60}"/>
+    <hyperlink ref="G51" r:id="rId33" xr:uid="{4D237FA4-6FE9-5A4C-8713-4FCD965F5231}"/>
+    <hyperlink ref="G52" r:id="rId34" xr:uid="{4E031D5E-4B15-E646-AA8E-47A65B6EFF79}"/>
+    <hyperlink ref="G62" r:id="rId35" xr:uid="{FDE7FB9D-D7E4-7544-96B1-C85422C1CAA7}"/>
+    <hyperlink ref="G61" r:id="rId36" xr:uid="{6AE9298E-B5B2-DD44-8E1C-0E89BF893AE6}"/>
+    <hyperlink ref="G59" r:id="rId37" xr:uid="{7F05D5E5-E6BA-CD40-BF00-3E6A222ACF58}"/>
+    <hyperlink ref="G55" r:id="rId38" xr:uid="{81004994-FC78-8547-9153-583C44AE1D76}"/>
+    <hyperlink ref="G58" r:id="rId39" xr:uid="{A7A3D3E7-DB98-9846-9837-4F92A5AEC05B}"/>
+    <hyperlink ref="G63" r:id="rId40" xr:uid="{A4C11252-F340-8C41-94EA-7F54CBE97C72}"/>
+    <hyperlink ref="G64" r:id="rId41" xr:uid="{9754C7AB-196A-6549-BEAD-D36381163F48}"/>
+    <hyperlink ref="G67" r:id="rId42" xr:uid="{4398D883-8521-194B-8F9B-83CB9FAC708C}"/>
+    <hyperlink ref="G60" r:id="rId43" xr:uid="{8121FC13-B5AD-DE45-B596-7A654553B8E1}"/>
+    <hyperlink ref="G56" r:id="rId44" xr:uid="{5239B69E-6ECC-9A44-AB79-B03D6976AB4B}"/>
+    <hyperlink ref="G65" r:id="rId45" xr:uid="{2649F7DB-4C28-0842-86F0-046A8CBD0D7F}"/>
+    <hyperlink ref="G57" r:id="rId46" xr:uid="{8E7EBB42-4FF3-2040-B177-E71E2A9B513B}"/>
+    <hyperlink ref="G9" r:id="rId47" xr:uid="{4D3355E8-5A36-174A-A71D-DB31B3BDB127}"/>
+    <hyperlink ref="G37" r:id="rId48" xr:uid="{565D2868-B2F4-4147-8B2C-9DA2839B402A}"/>
+    <hyperlink ref="G6" r:id="rId49" xr:uid="{41337B6D-A726-404F-8E3A-A7297AAEF553}"/>
+    <hyperlink ref="G45" r:id="rId50" xr:uid="{34D85EC0-0AEE-374A-B6A1-76DF8A07B165}"/>
+    <hyperlink ref="G46" r:id="rId51" xr:uid="{EDB9A295-1581-C24A-88A3-E0CC212C0DDD}"/>
+    <hyperlink ref="G47" r:id="rId52" xr:uid="{6DE2C368-613C-9D4D-9F84-6D0DBC951923}"/>
+    <hyperlink ref="G48" r:id="rId53" xr:uid="{4DC302ED-59A9-2449-A361-F29906F9C3AE}"/>
+    <hyperlink ref="H32" r:id="rId54" xr:uid="{D70B5C5F-26F0-0B41-8C17-1CC14ADA3FE6}"/>
+    <hyperlink ref="H34" r:id="rId55" xr:uid="{0641F1EB-124F-B04D-A94A-758F384DED86}"/>
+    <hyperlink ref="H35" r:id="rId56" xr:uid="{DB0D0FF9-650C-9047-8B87-64100B2B793F}"/>
+    <hyperlink ref="H36" r:id="rId57" xr:uid="{C2D15776-74B0-F248-A49B-2B60EC4E9F50}"/>
+    <hyperlink ref="H37" r:id="rId58" xr:uid="{7FCBF6EC-A974-3C4D-8ECC-BADD5D52FD8F}"/>
+    <hyperlink ref="H41" r:id="rId59" xr:uid="{FF2327CA-6C12-1B4D-9F3D-A6892FDF93AA}"/>
+    <hyperlink ref="G41" r:id="rId60" xr:uid="{A3991D56-3C5A-D24F-9BF4-72B691163E2E}"/>
+    <hyperlink ref="H42" r:id="rId61" xr:uid="{85C3CCAE-AE34-6F4D-BB81-D0542993FD86}"/>
+    <hyperlink ref="G50" r:id="rId62" xr:uid="{6D279AE6-1632-D949-AF1B-D9B01BEE22D5}"/>
+    <hyperlink ref="G54" r:id="rId63" xr:uid="{77ED00C2-AEB9-AF46-BAD4-47C057542ED7}"/>
+    <hyperlink ref="H60" r:id="rId64" xr:uid="{7E92FC71-1828-1347-8A0C-006F6C8E33D9}"/>
+    <hyperlink ref="H62" r:id="rId65" xr:uid="{765DA2F2-534C-F04A-83EE-6DE4C93A616F}"/>
+    <hyperlink ref="H63" r:id="rId66" xr:uid="{2FF58D32-1303-3741-8980-398B83460ED3}"/>
+    <hyperlink ref="H64" r:id="rId67" xr:uid="{26EDE05F-D1A0-2C4A-8936-BE0E610D5348}"/>
+    <hyperlink ref="G66" r:id="rId68" xr:uid="{1F44837E-6CDE-1F4D-ADC9-348EB68867C4}"/>
+    <hyperlink ref="H66" r:id="rId69" xr:uid="{A9E4EEEA-BAD5-8044-925B-73291B6B46E9}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup scale="40" fitToHeight="4" orientation="portrait" copies="2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId71"/>
+  <drawing r:id="rId70"/>
 </worksheet>
 </file>
--- a/Component_Placement_Sheet.xlsx
+++ b/Component_Placement_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v3X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502BE373-B7A4-804F-9FD5-5FF756327F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2136ED1-B492-6B49-A5CD-359D6462D29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="24540" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3073,7 +3073,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
